--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varunneti/Desktop/JavaWAutomation/240930-JWA/Foundation Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varunneti/Library/Mobile Documents/com~apple~CloudDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BDA806-28D4-5F4A-B9EB-B1978E0F2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2681D6A6-D42C-6748-B08C-C311609B64A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="1120" windowWidth="24460" windowHeight="14580" xr2:uid="{D553A7D2-898D-425D-9100-869F82215B38}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{D553A7D2-898D-425D-9100-869F82215B38}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
   <si>
     <t>Users should be able to open a new User account with the Planetarium</t>
   </si>
@@ -95,81 +95,12 @@
     <t>Error Guess Testing to perform Acceptance Testing for the Use Case</t>
   </si>
   <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>1. Requirement Analysis</t>
-  </si>
-  <si>
-    <t>2. Test Planning</t>
-  </si>
-  <si>
-    <t>3. Test Case Development</t>
-  </si>
-  <si>
-    <t>4. Test Environment Setup</t>
-  </si>
-  <si>
-    <t>5. Test Execution</t>
-  </si>
-  <si>
-    <t>6. Test Cycle Closure</t>
-  </si>
-  <si>
-    <t>October 31st</t>
-  </si>
-  <si>
-    <t>October 17th</t>
-  </si>
-  <si>
-    <t>October 24th</t>
-  </si>
-  <si>
-    <t>October 25th</t>
-  </si>
-  <si>
-    <t>October 30th</t>
-  </si>
-  <si>
-    <t>Completion Target</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>target met</t>
-  </si>
-  <si>
-    <t>target missed</t>
-  </si>
-  <si>
-    <t>target in progress</t>
-  </si>
-  <si>
-    <t>Actual Completion</t>
-  </si>
-  <si>
-    <t>System Requirement Specifications in Foundations Project Document</t>
-  </si>
-  <si>
     <t>Planetarium Wireframe Documentation</t>
   </si>
   <si>
     <t>Requirements Provided By Stakeholder</t>
   </si>
   <si>
-    <t>Setup Script for Planetarium Database</t>
-  </si>
-  <si>
-    <t>Planetarium Application to be Tested</t>
-  </si>
-  <si>
-    <t>ahead of schedule</t>
-  </si>
-  <si>
-    <t>October 16th</t>
-  </si>
-  <si>
     <t>Users should be able to securely access their account</t>
   </si>
   <si>
@@ -329,12 +260,6 @@
     <t>decision table testing for username/password combinations</t>
   </si>
   <si>
-    <t>Error Guess testing for the secure login(password visibility)</t>
-  </si>
-  <si>
-    <t>decision table testing to make sure the right planets/moons are being shown</t>
-  </si>
-  <si>
     <t xml:space="preserve">conditional testing to make sure the users can see the homepage when logged in </t>
   </si>
   <si>
@@ -347,9 +272,6 @@
     <t>Error Guess Testing to see if the planets are related to the users who created them</t>
   </si>
   <si>
-    <t>October 22nd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boundary Analysis testing for moon name planet id </t>
   </si>
   <si>
@@ -360,13 +282,43 @@
   </si>
   <si>
     <t>Error Guess Testing to see if the moons  are related to planets and in turn the users who created them</t>
+  </si>
+  <si>
+    <t>decision table testing for username/password combinations that work securely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium </t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a Test Plan titled 'Test Plan' in the GitHub that is used for this. </t>
+  </si>
+  <si>
+    <t>SRS Specifications for Automation Project</t>
+  </si>
+  <si>
+    <t>Will add link to test plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,14 +330,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,6 +377,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -473,12 +442,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -491,7 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,98 +491,101 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -956,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA3B490-9839-44EA-A87B-924B8721CBB2}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -967,376 +939,399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="E5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="B13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="E14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H16" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1344,250 +1339,290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D5F5EC-3BC4-4B13-BFC6-6AE082A36DC7}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="C3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="D4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="D5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="C7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104746C3-76B6-41CE-80DD-9119CA59496B}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="99.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>41</v>
-      </c>
+    <row r="1" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1596,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82C953D-5C40-4B49-8BA7-26B2DA71070C}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1607,37 +1642,32 @@
     <col min="1" max="1" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>40</v>
-      </c>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{9F5F385F-336C-40EA-B186-2E4AF0E091B9}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{BD258779-96B8-4C01-9D6A-E59F283AF271}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{018EDFC1-F08F-4077-91CA-C55372B65EEF}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{F5FE86BE-79B7-4477-BEEA-6B48DB7063FD}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{BD258779-96B8-4C01-9D6A-E59F283AF271}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{C475D0C0-F506-EB41-A940-A1E90F8FDE54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varunneti/Library/Mobile Documents/com~apple~CloudDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2681D6A6-D42C-6748-B08C-C311609B64A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449A5C26-4640-D747-80A1-84791B1085DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{D553A7D2-898D-425D-9100-869F82215B38}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15980" xr2:uid="{D553A7D2-898D-425D-9100-869F82215B38}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
   <si>
     <t>Users should be able to open a new User account with the Planetarium</t>
   </si>
@@ -185,18 +185,9 @@
     <t>given the user is on the home page</t>
   </si>
   <si>
-    <t>the user should be able to see the planets and moons added to the planetarium</t>
-  </si>
-  <si>
-    <t>this includes the Type, ID, Name, Owner and a phtot of the planet/moon</t>
-  </si>
-  <si>
     <t>the user cannot see the planets and moons added to the planetarium</t>
   </si>
   <si>
-    <t>this could be the Type, ID, Name, Owner or the photo of the planet/moon</t>
-  </si>
-  <si>
     <t>Planets and Moons should allow adding an associated image, but an image should not be required for the data to be added to the database</t>
   </si>
   <si>
@@ -305,13 +296,19 @@
     <t>Strategy</t>
   </si>
   <si>
-    <t xml:space="preserve">There is a Test Plan titled 'Test Plan' in the GitHub that is used for this. </t>
-  </si>
-  <si>
     <t>SRS Specifications for Automation Project</t>
   </si>
   <si>
-    <t>Will add link to test plan</t>
+    <t>Test Plan</t>
+  </si>
+  <si>
+    <t>then user should be able to see the planets and moons added to the planetarium</t>
+  </si>
+  <si>
+    <t>And this includes the Type, ID, Name, Owner and a phtot of the planet/moon</t>
+  </si>
+  <si>
+    <t>and this could be the Type, ID, Name, Owner or the photo of the planet/moon</t>
   </si>
 </sst>
 </file>
@@ -542,16 +539,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -562,30 +559,32 @@
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -607,6 +606,152 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1206500</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871330CC-E5C1-B6AE-EF8F-31649BF62911}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>622300</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0CFC77-328A-C35D-A67C-9C4DEA5E56C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -928,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA3B490-9839-44EA-A87B-924B8721CBB2}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1002,16 +1147,16 @@
         <v>45</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -1028,16 +1173,16 @@
         <v>32</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -1049,19 +1194,19 @@
         <v>3</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -1123,19 +1268,19 @@
         <v>36</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -1147,19 +1292,19 @@
         <v>37</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -1172,16 +1317,16 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -1243,19 +1388,19 @@
         <v>36</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -1267,22 +1412,22 @@
         <v>38</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="15" t="s">
         <v>11</v>
@@ -1292,42 +1437,42 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="E16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1338,11 +1483,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D5F5EC-3BC4-4B13-BFC6-6AE082A36DC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D5F5EC-3BC4-4B13-BFC6-6AE082A36DC7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1403,28 +1548,28 @@
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -1435,19 +1580,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -1458,19 +1603,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -1501,7 +1646,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1541,91 +1686,130 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Document" shapeId="2050" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1206500</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Document" shapeId="2050" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104746C3-76B6-41CE-80DD-9119CA59496B}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104746C3-76B6-41CE-80DD-9119CA59496B}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="99.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>88</v>
-      </c>
+    <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27"/>
       <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>90</v>
+      <c r="A2" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="B2" s="29"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="29"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
       <c r="B5" s="29"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B3CFE4B8-0FF4-0449-9886-C4986489216B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Worksheet" shapeId="3074" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>622300</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Worksheet" shapeId="3074" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -1648,10 +1832,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="35"/>
+      <c r="A2" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
